--- a/Code/Results/Cases/Case_5_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016088328725654</v>
+        <v>1.045889371829667</v>
       </c>
       <c r="D2">
-        <v>1.030258871181191</v>
+        <v>1.04687021693114</v>
       </c>
       <c r="E2">
-        <v>1.019589117471803</v>
+        <v>1.04350055558008</v>
       </c>
       <c r="F2">
-        <v>1.021133113536663</v>
+        <v>1.054336992649198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052389366031763</v>
+        <v>1.045805903132512</v>
       </c>
       <c r="J2">
-        <v>1.037798262583717</v>
+        <v>1.050946695619129</v>
       </c>
       <c r="K2">
-        <v>1.041312152660166</v>
+        <v>1.049634443028699</v>
       </c>
       <c r="L2">
-        <v>1.030782127257279</v>
+        <v>1.046274245442233</v>
       </c>
       <c r="M2">
-        <v>1.032305676901633</v>
+        <v>1.057080481744324</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022413261990651</v>
+        <v>1.047133903105042</v>
       </c>
       <c r="D3">
-        <v>1.035092210500333</v>
+        <v>1.047825673414588</v>
       </c>
       <c r="E3">
-        <v>1.024862745184542</v>
+        <v>1.04457458345226</v>
       </c>
       <c r="F3">
-        <v>1.028115250820494</v>
+        <v>1.055789571921186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055121320414709</v>
+        <v>1.046257205973744</v>
       </c>
       <c r="J3">
-        <v>1.04231102310689</v>
+        <v>1.051837617078412</v>
       </c>
       <c r="K3">
-        <v>1.045294937206145</v>
+        <v>1.050401256093648</v>
       </c>
       <c r="L3">
-        <v>1.035187086771355</v>
+        <v>1.047158633558718</v>
       </c>
       <c r="M3">
-        <v>1.03840059902224</v>
+        <v>1.058344650361362</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026394503310627</v>
+        <v>1.047938346416962</v>
       </c>
       <c r="D4">
-        <v>1.038136627994407</v>
+        <v>1.048443102837044</v>
       </c>
       <c r="E4">
-        <v>1.02818667638978</v>
+        <v>1.045268922342316</v>
       </c>
       <c r="F4">
-        <v>1.032514110021706</v>
+        <v>1.05672901742829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056829124686937</v>
+        <v>1.046547473026928</v>
       </c>
       <c r="J4">
-        <v>1.045146312816788</v>
+        <v>1.052412749953195</v>
       </c>
       <c r="K4">
-        <v>1.047795574764627</v>
+        <v>1.050896002187085</v>
       </c>
       <c r="L4">
-        <v>1.037956410891515</v>
+        <v>1.047729670680783</v>
       </c>
       <c r="M4">
-        <v>1.042235337858412</v>
+        <v>1.059161666603921</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028042851374418</v>
+        <v>1.048276333986484</v>
       </c>
       <c r="D5">
-        <v>1.039397525561489</v>
+        <v>1.048702477078752</v>
       </c>
       <c r="E5">
-        <v>1.029563875863889</v>
+        <v>1.045560674189358</v>
       </c>
       <c r="F5">
-        <v>1.034336345775949</v>
+        <v>1.057123852329814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057533325496649</v>
+        <v>1.046669082303923</v>
       </c>
       <c r="J5">
-        <v>1.046318895700142</v>
+        <v>1.052654214313695</v>
       </c>
       <c r="K5">
-        <v>1.048829340025101</v>
+        <v>1.05110365230463</v>
       </c>
       <c r="L5">
-        <v>1.039102124934087</v>
+        <v>1.0479694445691</v>
       </c>
       <c r="M5">
-        <v>1.043822629978294</v>
+        <v>1.059504908402245</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028318165034662</v>
+        <v>1.048333071936278</v>
       </c>
       <c r="D6">
-        <v>1.039608148415705</v>
+        <v>1.048746015889867</v>
       </c>
       <c r="E6">
-        <v>1.029793957921478</v>
+        <v>1.045609651984626</v>
       </c>
       <c r="F6">
-        <v>1.034640761614684</v>
+        <v>1.057190140648861</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05765077344765</v>
+        <v>1.046689476507696</v>
       </c>
       <c r="J6">
-        <v>1.04651466702497</v>
+        <v>1.052694738458495</v>
       </c>
       <c r="K6">
-        <v>1.049001909834685</v>
+        <v>1.051138497725822</v>
       </c>
       <c r="L6">
-        <v>1.039293434262461</v>
+        <v>1.048009686711805</v>
       </c>
       <c r="M6">
-        <v>1.044087722689537</v>
+        <v>1.059562526734064</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026416626630243</v>
+        <v>1.047942863406498</v>
       </c>
       <c r="D7">
-        <v>1.038153549570394</v>
+        <v>1.048446569364601</v>
       </c>
       <c r="E7">
-        <v>1.028205156629701</v>
+        <v>1.045272821324263</v>
       </c>
       <c r="F7">
-        <v>1.032538563245509</v>
+        <v>1.056734293650131</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056838587567853</v>
+        <v>1.04654909962064</v>
       </c>
       <c r="J7">
-        <v>1.045162055880013</v>
+        <v>1.052415977672115</v>
       </c>
       <c r="K7">
-        <v>1.047809455733041</v>
+        <v>1.050898778156112</v>
       </c>
       <c r="L7">
-        <v>1.03797179159609</v>
+        <v>1.047732875688418</v>
       </c>
       <c r="M7">
-        <v>1.042256643279689</v>
+        <v>1.059166253923498</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01824975631933</v>
+        <v>1.046310145440746</v>
       </c>
       <c r="D8">
-        <v>1.031910093309309</v>
+        <v>1.047193287830271</v>
       </c>
       <c r="E8">
-        <v>1.021390303373002</v>
+        <v>1.043863659977354</v>
       </c>
       <c r="F8">
-        <v>1.02351832159304</v>
+        <v>1.054827998806527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0533254273613</v>
+        <v>1.045958787497203</v>
       </c>
       <c r="J8">
-        <v>1.039341499012802</v>
+        <v>1.051248068258152</v>
       </c>
       <c r="K8">
-        <v>1.04267449741115</v>
+        <v>1.0498938890488</v>
       </c>
       <c r="L8">
-        <v>1.032288119677502</v>
+        <v>1.046573382729362</v>
       </c>
       <c r="M8">
-        <v>1.034388873852287</v>
+        <v>1.057507919932786</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002941194470781</v>
+        <v>1.043426408670658</v>
       </c>
       <c r="D9">
-        <v>1.020227300846445</v>
+        <v>1.044978515848589</v>
       </c>
       <c r="E9">
-        <v>1.008655355480765</v>
+        <v>1.041375614666168</v>
       </c>
       <c r="F9">
-        <v>1.006640085422913</v>
+        <v>1.051465053358857</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046646519938782</v>
+        <v>1.044905069173747</v>
       </c>
       <c r="J9">
-        <v>1.028390517383813</v>
+        <v>1.049179593983745</v>
       </c>
       <c r="K9">
-        <v>1.03300051236233</v>
+        <v>1.048112080068681</v>
       </c>
       <c r="L9">
-        <v>1.021609549255702</v>
+        <v>1.044520755641526</v>
       </c>
       <c r="M9">
-        <v>1.019626342729508</v>
+        <v>1.054577993936813</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9920191659704009</v>
+        <v>1.041499205895602</v>
       </c>
       <c r="D10">
-        <v>1.011911732456807</v>
+        <v>1.043497618111978</v>
       </c>
       <c r="E10">
-        <v>0.9996016387442941</v>
+        <v>1.039713457489666</v>
       </c>
       <c r="F10">
-        <v>0.9946155839621849</v>
+        <v>1.049220235897897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041820589749636</v>
+        <v>1.044193414691789</v>
       </c>
       <c r="J10">
-        <v>1.020553045248197</v>
+        <v>1.047793420712012</v>
       </c>
       <c r="K10">
-        <v>1.026069196722196</v>
+        <v>1.046916640737115</v>
       </c>
       <c r="L10">
-        <v>1.013978089453554</v>
+        <v>1.043145840574493</v>
       </c>
       <c r="M10">
-        <v>1.009082741033115</v>
+        <v>1.052619255702356</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9870944081582375</v>
+        <v>1.040663538485794</v>
       </c>
       <c r="D11">
-        <v>1.008168325547103</v>
+        <v>1.042855304358263</v>
       </c>
       <c r="E11">
-        <v>0.9955282973338937</v>
+        <v>1.038992870159661</v>
       </c>
       <c r="F11">
-        <v>0.9891970879551437</v>
+        <v>1.048247462768925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039630832202304</v>
+        <v>1.043883063598791</v>
       </c>
       <c r="J11">
-        <v>1.01701410800358</v>
+        <v>1.047191452485614</v>
       </c>
       <c r="K11">
-        <v>1.022937825907177</v>
+        <v>1.046397178827657</v>
       </c>
       <c r="L11">
-        <v>1.010535039012099</v>
+        <v>1.042548913992351</v>
       </c>
       <c r="M11">
-        <v>1.004325648017897</v>
+        <v>1.051769748957502</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9852333027455934</v>
+        <v>1.040352953355364</v>
       </c>
       <c r="D12">
-        <v>1.006754712357418</v>
+        <v>1.042616556284926</v>
       </c>
       <c r="E12">
-        <v>0.9939904281639574</v>
+        <v>1.038725079351284</v>
       </c>
       <c r="F12">
-        <v>0.9871498256658537</v>
+        <v>1.047886012761749</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038801306210757</v>
+        <v>1.04376745302067</v>
       </c>
       <c r="J12">
-        <v>1.015676035856796</v>
+        <v>1.046967589303075</v>
       </c>
       <c r="K12">
-        <v>1.021753636907762</v>
+        <v>1.046203950224641</v>
       </c>
       <c r="L12">
-        <v>1.009233674904058</v>
+        <v>1.042326948751028</v>
       </c>
       <c r="M12">
-        <v>1.002527426279947</v>
+        <v>1.051453994916261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9856339993190707</v>
+        <v>1.040419583183463</v>
       </c>
       <c r="D13">
-        <v>1.007059014016831</v>
+        <v>1.042667776026999</v>
       </c>
       <c r="E13">
-        <v>0.9943214629159646</v>
+        <v>1.038782527437657</v>
       </c>
       <c r="F13">
-        <v>0.9875905837379751</v>
+        <v>1.0479635504813</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03897999255692</v>
+        <v>1.043792266951896</v>
       </c>
       <c r="J13">
-        <v>1.015964152632008</v>
+        <v>1.047015620773926</v>
       </c>
       <c r="K13">
-        <v>1.022008628654482</v>
+        <v>1.046245411006618</v>
       </c>
       <c r="L13">
-        <v>1.009513866766458</v>
+        <v>1.042374571961278</v>
       </c>
       <c r="M13">
-        <v>1.002914606131964</v>
+        <v>1.051521734787835</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9869412332234493</v>
+        <v>1.040637869140737</v>
       </c>
       <c r="D14">
-        <v>1.00805195853035</v>
+        <v>1.042835572731676</v>
       </c>
       <c r="E14">
-        <v>0.9954016949873378</v>
+        <v>1.03897073721033</v>
       </c>
       <c r="F14">
-        <v>0.9890285834411214</v>
+        <v>1.048217587654319</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039562599721862</v>
+        <v>1.043873513983123</v>
       </c>
       <c r="J14">
-        <v>1.016903993721405</v>
+        <v>1.04717295331653</v>
       </c>
       <c r="K14">
-        <v>1.022840379446434</v>
+        <v>1.046381212163206</v>
       </c>
       <c r="L14">
-        <v>1.010427936218334</v>
+        <v>1.042530571191452</v>
       </c>
       <c r="M14">
-        <v>1.004177658514308</v>
+        <v>1.051743652931262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9877423666482209</v>
+        <v>1.040772338201522</v>
       </c>
       <c r="D15">
-        <v>1.0086606232334</v>
+        <v>1.042938935990385</v>
       </c>
       <c r="E15">
-        <v>0.9960639097751345</v>
+        <v>1.03908668180236</v>
       </c>
       <c r="F15">
-        <v>0.9899099104641732</v>
+        <v>1.048374092433185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039919387399881</v>
+        <v>1.04392352886399</v>
       </c>
       <c r="J15">
-        <v>1.017479884738168</v>
+        <v>1.047269855831457</v>
       </c>
       <c r="K15">
-        <v>1.02335000981238</v>
+        <v>1.046464846913091</v>
       </c>
       <c r="L15">
-        <v>1.010988095904601</v>
+        <v>1.042626655560327</v>
       </c>
       <c r="M15">
-        <v>1.004951651518208</v>
+        <v>1.051880356122685</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9923416837761738</v>
+        <v>1.041554641241166</v>
       </c>
       <c r="D16">
-        <v>1.012157022055199</v>
+        <v>1.043540223484309</v>
       </c>
       <c r="E16">
-        <v>0.9998685949643568</v>
+        <v>1.039761262070842</v>
       </c>
       <c r="F16">
-        <v>0.994970499915487</v>
+        <v>1.049284779307709</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041963715521879</v>
+        <v>1.044213965163463</v>
       </c>
       <c r="J16">
-        <v>1.020784709129575</v>
+        <v>1.047833334312869</v>
       </c>
       <c r="K16">
-        <v>1.026274149442225</v>
+        <v>1.046951076964055</v>
       </c>
       <c r="L16">
-        <v>1.014203537652357</v>
+        <v>1.043185423108246</v>
       </c>
       <c r="M16">
-        <v>1.009394214495876</v>
+        <v>1.052675605578558</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9951727308586851</v>
+        <v>1.0420450413628</v>
       </c>
       <c r="D17">
-        <v>1.014310867396599</v>
+        <v>1.043917105534409</v>
       </c>
       <c r="E17">
-        <v>1.002212955779037</v>
+        <v>1.040184175447482</v>
       </c>
       <c r="F17">
-        <v>0.9980863092777678</v>
+        <v>1.049855823665824</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043218521214668</v>
+        <v>1.044395557882023</v>
       </c>
       <c r="J17">
-        <v>1.022817686204764</v>
+        <v>1.048186319856692</v>
       </c>
       <c r="K17">
-        <v>1.028072543270599</v>
+        <v>1.047255584802616</v>
       </c>
       <c r="L17">
-        <v>1.016182294803037</v>
+        <v>1.043535498393639</v>
       </c>
       <c r="M17">
-        <v>1.012127975830761</v>
+        <v>1.053174076830344</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9968053556470128</v>
+        <v>1.042330970298462</v>
       </c>
       <c r="D18">
-        <v>1.015553524067383</v>
+        <v>1.044136830888229</v>
       </c>
       <c r="E18">
-        <v>1.003565753300945</v>
+        <v>1.040430770672201</v>
       </c>
       <c r="F18">
-        <v>0.9998834749835356</v>
+        <v>1.050188831976002</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043940851679197</v>
+        <v>1.044501265698902</v>
       </c>
       <c r="J18">
-        <v>1.023989598450185</v>
+        <v>1.048392042091707</v>
       </c>
       <c r="K18">
-        <v>1.029109077595173</v>
+        <v>1.047433022796065</v>
       </c>
       <c r="L18">
-        <v>1.01732321975377</v>
+        <v>1.043739539201533</v>
       </c>
       <c r="M18">
-        <v>1.013704220104196</v>
+        <v>1.053464695786015</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9973589410030466</v>
+        <v>1.042428445614691</v>
       </c>
       <c r="D19">
-        <v>1.015974972209668</v>
+        <v>1.044211734066494</v>
       </c>
       <c r="E19">
-        <v>1.004024594206196</v>
+        <v>1.040514839285501</v>
       </c>
       <c r="F19">
-        <v>1.000492909158669</v>
+        <v>1.050302367129555</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044185555199734</v>
+        <v>1.04453727340474</v>
       </c>
       <c r="J19">
-        <v>1.024386883866225</v>
+        <v>1.048462159609453</v>
       </c>
       <c r="K19">
-        <v>1.029460442624116</v>
+        <v>1.047493494743892</v>
       </c>
       <c r="L19">
-        <v>1.017710045080792</v>
+        <v>1.0438090861172</v>
       </c>
       <c r="M19">
-        <v>1.014238641991427</v>
+        <v>1.053563767290508</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9948709350994432</v>
+        <v>1.041992437808439</v>
       </c>
       <c r="D20">
-        <v>1.014081203247245</v>
+        <v>1.04387668038974</v>
       </c>
       <c r="E20">
-        <v>1.001962953922366</v>
+        <v>1.040138809452025</v>
       </c>
       <c r="F20">
-        <v>0.9977541242374254</v>
+        <v>1.049794563521773</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043084890632781</v>
+        <v>1.044376096658848</v>
       </c>
       <c r="J20">
-        <v>1.022601015481188</v>
+        <v>1.048148465275615</v>
       </c>
       <c r="K20">
-        <v>1.027880889620896</v>
+        <v>1.04722293224601</v>
       </c>
       <c r="L20">
-        <v>1.015971374747072</v>
+        <v>1.043497954391347</v>
       </c>
       <c r="M20">
-        <v>1.011836579955051</v>
+        <v>1.053120609159386</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9865571853510707</v>
+        <v>1.040573594400016</v>
       </c>
       <c r="D21">
-        <v>1.007760214688079</v>
+        <v>1.042786165336576</v>
       </c>
       <c r="E21">
-        <v>0.9950842954908024</v>
+        <v>1.038915317807897</v>
       </c>
       <c r="F21">
-        <v>0.9886061071352876</v>
+        <v>1.04814278336286</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039391491901233</v>
+        <v>1.043849597947129</v>
       </c>
       <c r="J21">
-        <v>1.016627899006559</v>
+        <v>1.04712663015457</v>
       </c>
       <c r="K21">
-        <v>1.022596043934045</v>
+        <v>1.046341229783433</v>
       </c>
       <c r="L21">
-        <v>1.010159399722288</v>
+        <v>1.042484639958172</v>
       </c>
       <c r="M21">
-        <v>1.003806604004837</v>
+        <v>1.051678309390758</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9811443984804932</v>
+        <v>1.039680461572222</v>
       </c>
       <c r="D22">
-        <v>1.003651057868957</v>
+        <v>1.042099564241416</v>
       </c>
       <c r="E22">
-        <v>0.9906145631422643</v>
+        <v>1.038145291410309</v>
       </c>
       <c r="F22">
-        <v>0.9826526311861394</v>
+        <v>1.047103553689462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036975204289688</v>
+        <v>1.043516643439253</v>
       </c>
       <c r="J22">
-        <v>1.012735085702521</v>
+        <v>1.046482624922181</v>
       </c>
       <c r="K22">
-        <v>1.019150531918334</v>
+        <v>1.045785262677194</v>
       </c>
       <c r="L22">
-        <v>1.006374268728288</v>
+        <v>1.041846138207117</v>
       </c>
       <c r="M22">
-        <v>0.9985757578668173</v>
+        <v>1.050770264164667</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9840323126108069</v>
+        <v>1.040154029146483</v>
       </c>
       <c r="D23">
-        <v>1.005842807421135</v>
+        <v>1.042463635488443</v>
       </c>
       <c r="E23">
-        <v>0.9929984596826886</v>
+        <v>1.038553570849414</v>
       </c>
       <c r="F23">
-        <v>0.9858288177642969</v>
+        <v>1.047654536315798</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038265449814061</v>
+        <v>1.043693331899944</v>
       </c>
       <c r="J23">
-        <v>1.014812382594162</v>
+        <v>1.046824170988426</v>
       </c>
       <c r="K23">
-        <v>1.020989248520053</v>
+        <v>1.046080144427979</v>
       </c>
       <c r="L23">
-        <v>1.008393845547657</v>
+        <v>1.042184752851463</v>
       </c>
       <c r="M23">
-        <v>1.001366876379324</v>
+        <v>1.051251752899727</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9950073611473504</v>
+        <v>1.042016207439799</v>
       </c>
       <c r="D24">
-        <v>1.014185020631216</v>
+        <v>1.043894947092489</v>
       </c>
       <c r="E24">
-        <v>1.002075964069044</v>
+        <v>1.040159308648964</v>
       </c>
       <c r="F24">
-        <v>0.997904286679809</v>
+        <v>1.049822244566725</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043145302052196</v>
+        <v>1.044384891003313</v>
       </c>
       <c r="J24">
-        <v>1.022698962447372</v>
+        <v>1.048165570651147</v>
       </c>
       <c r="K24">
-        <v>1.027967527981418</v>
+        <v>1.047237687075401</v>
       </c>
       <c r="L24">
-        <v>1.016066721268184</v>
+        <v>1.043514919380039</v>
       </c>
       <c r="M24">
-        <v>1.011968305618979</v>
+        <v>1.053144769302552</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007017183700607</v>
+        <v>1.044172737943938</v>
       </c>
       <c r="D25">
-        <v>1.023334994904825</v>
+        <v>1.045551850659487</v>
       </c>
       <c r="E25">
-        <v>1.012041030854334</v>
+        <v>1.042019432846232</v>
       </c>
       <c r="F25">
-        <v>1.011130808722992</v>
+        <v>1.052334936899116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048435404767626</v>
+        <v>1.045179091234905</v>
       </c>
       <c r="J25">
-        <v>1.031310677573467</v>
+        <v>1.049715600343952</v>
       </c>
       <c r="K25">
-        <v>1.035581551549039</v>
+        <v>1.048574044759459</v>
       </c>
       <c r="L25">
-        <v>1.024455257343755</v>
+        <v>1.045052543649962</v>
       </c>
       <c r="M25">
-        <v>1.023558756045821</v>
+        <v>1.055336392457733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_239/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_239/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045889371829667</v>
+        <v>1.016088328725653</v>
       </c>
       <c r="D2">
-        <v>1.04687021693114</v>
+        <v>1.03025887118119</v>
       </c>
       <c r="E2">
-        <v>1.04350055558008</v>
+        <v>1.019589117471802</v>
       </c>
       <c r="F2">
-        <v>1.054336992649198</v>
+        <v>1.021133113536662</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045805903132512</v>
+        <v>1.052389366031762</v>
       </c>
       <c r="J2">
-        <v>1.050946695619129</v>
+        <v>1.037798262583716</v>
       </c>
       <c r="K2">
-        <v>1.049634443028699</v>
+        <v>1.041312152660165</v>
       </c>
       <c r="L2">
-        <v>1.046274245442233</v>
+        <v>1.030782127257278</v>
       </c>
       <c r="M2">
-        <v>1.057080481744324</v>
+        <v>1.032305676901632</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047133903105042</v>
+        <v>1.022413261990651</v>
       </c>
       <c r="D3">
-        <v>1.047825673414588</v>
+        <v>1.035092210500333</v>
       </c>
       <c r="E3">
-        <v>1.04457458345226</v>
+        <v>1.024862745184542</v>
       </c>
       <c r="F3">
-        <v>1.055789571921186</v>
+        <v>1.028115250820494</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046257205973744</v>
+        <v>1.055121320414709</v>
       </c>
       <c r="J3">
-        <v>1.051837617078412</v>
+        <v>1.04231102310689</v>
       </c>
       <c r="K3">
-        <v>1.050401256093648</v>
+        <v>1.045294937206145</v>
       </c>
       <c r="L3">
-        <v>1.047158633558718</v>
+        <v>1.035187086771355</v>
       </c>
       <c r="M3">
-        <v>1.058344650361362</v>
+        <v>1.03840059902224</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047938346416962</v>
+        <v>1.026394503310627</v>
       </c>
       <c r="D4">
-        <v>1.048443102837044</v>
+        <v>1.038136627994407</v>
       </c>
       <c r="E4">
-        <v>1.045268922342316</v>
+        <v>1.028186676389781</v>
       </c>
       <c r="F4">
-        <v>1.05672901742829</v>
+        <v>1.032514110021706</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046547473026928</v>
+        <v>1.056829124686937</v>
       </c>
       <c r="J4">
-        <v>1.052412749953195</v>
+        <v>1.045146312816788</v>
       </c>
       <c r="K4">
-        <v>1.050896002187085</v>
+        <v>1.047795574764628</v>
       </c>
       <c r="L4">
-        <v>1.047729670680783</v>
+        <v>1.037956410891515</v>
       </c>
       <c r="M4">
-        <v>1.059161666603921</v>
+        <v>1.042235337858412</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048276333986484</v>
+        <v>1.028042851374417</v>
       </c>
       <c r="D5">
-        <v>1.048702477078752</v>
+        <v>1.039397525561488</v>
       </c>
       <c r="E5">
-        <v>1.045560674189358</v>
+        <v>1.029563875863889</v>
       </c>
       <c r="F5">
-        <v>1.057123852329814</v>
+        <v>1.034336345775948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046669082303923</v>
+        <v>1.057533325496649</v>
       </c>
       <c r="J5">
-        <v>1.052654214313695</v>
+        <v>1.046318895700141</v>
       </c>
       <c r="K5">
-        <v>1.05110365230463</v>
+        <v>1.0488293400251</v>
       </c>
       <c r="L5">
-        <v>1.0479694445691</v>
+        <v>1.039102124934087</v>
       </c>
       <c r="M5">
-        <v>1.059504908402245</v>
+        <v>1.043822629978293</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048333071936278</v>
+        <v>1.028318165034664</v>
       </c>
       <c r="D6">
-        <v>1.048746015889867</v>
+        <v>1.039608148415707</v>
       </c>
       <c r="E6">
-        <v>1.045609651984626</v>
+        <v>1.029793957921479</v>
       </c>
       <c r="F6">
-        <v>1.057190140648861</v>
+        <v>1.034640761614687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046689476507696</v>
+        <v>1.057650773447651</v>
       </c>
       <c r="J6">
-        <v>1.052694738458495</v>
+        <v>1.046514667024972</v>
       </c>
       <c r="K6">
-        <v>1.051138497725822</v>
+        <v>1.049001909834687</v>
       </c>
       <c r="L6">
-        <v>1.048009686711805</v>
+        <v>1.039293434262463</v>
       </c>
       <c r="M6">
-        <v>1.059562526734064</v>
+        <v>1.044087722689539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047942863406498</v>
+        <v>1.02641662663024</v>
       </c>
       <c r="D7">
-        <v>1.048446569364601</v>
+        <v>1.038153549570392</v>
       </c>
       <c r="E7">
-        <v>1.045272821324263</v>
+        <v>1.028205156629699</v>
       </c>
       <c r="F7">
-        <v>1.056734293650131</v>
+        <v>1.032538563245507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04654909962064</v>
+        <v>1.056838587567852</v>
       </c>
       <c r="J7">
-        <v>1.052415977672115</v>
+        <v>1.045162055880011</v>
       </c>
       <c r="K7">
-        <v>1.050898778156112</v>
+        <v>1.047809455733039</v>
       </c>
       <c r="L7">
-        <v>1.047732875688418</v>
+        <v>1.037971791596088</v>
       </c>
       <c r="M7">
-        <v>1.059166253923498</v>
+        <v>1.042256643279687</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046310145440746</v>
+        <v>1.018249756319331</v>
       </c>
       <c r="D8">
-        <v>1.047193287830271</v>
+        <v>1.03191009330931</v>
       </c>
       <c r="E8">
-        <v>1.043863659977354</v>
+        <v>1.021390303373003</v>
       </c>
       <c r="F8">
-        <v>1.054827998806527</v>
+        <v>1.023518321593041</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045958787497203</v>
+        <v>1.053325427361301</v>
       </c>
       <c r="J8">
-        <v>1.051248068258152</v>
+        <v>1.039341499012802</v>
       </c>
       <c r="K8">
-        <v>1.0498938890488</v>
+        <v>1.042674497411151</v>
       </c>
       <c r="L8">
-        <v>1.046573382729362</v>
+        <v>1.032288119677503</v>
       </c>
       <c r="M8">
-        <v>1.057507919932786</v>
+        <v>1.034388873852287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043426408670658</v>
+        <v>1.00294119447078</v>
       </c>
       <c r="D9">
-        <v>1.044978515848589</v>
+        <v>1.020227300846444</v>
       </c>
       <c r="E9">
-        <v>1.041375614666168</v>
+        <v>1.008655355480763</v>
       </c>
       <c r="F9">
-        <v>1.051465053358857</v>
+        <v>1.006640085422912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044905069173747</v>
+        <v>1.046646519938782</v>
       </c>
       <c r="J9">
-        <v>1.049179593983745</v>
+        <v>1.028390517383812</v>
       </c>
       <c r="K9">
-        <v>1.048112080068681</v>
+        <v>1.03300051236233</v>
       </c>
       <c r="L9">
-        <v>1.044520755641526</v>
+        <v>1.021609549255701</v>
       </c>
       <c r="M9">
-        <v>1.054577993936813</v>
+        <v>1.019626342729508</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041499205895602</v>
+        <v>0.9920191659703996</v>
       </c>
       <c r="D10">
-        <v>1.043497618111978</v>
+        <v>1.011911732456806</v>
       </c>
       <c r="E10">
-        <v>1.039713457489666</v>
+        <v>0.9996016387442929</v>
       </c>
       <c r="F10">
-        <v>1.049220235897897</v>
+        <v>0.9946155839621841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044193414691789</v>
+        <v>1.041820589749635</v>
       </c>
       <c r="J10">
-        <v>1.047793420712012</v>
+        <v>1.020553045248196</v>
       </c>
       <c r="K10">
-        <v>1.046916640737115</v>
+        <v>1.026069196722196</v>
       </c>
       <c r="L10">
-        <v>1.043145840574493</v>
+        <v>1.013978089453552</v>
       </c>
       <c r="M10">
-        <v>1.052619255702356</v>
+        <v>1.009082741033114</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040663538485794</v>
+        <v>0.987094408158237</v>
       </c>
       <c r="D11">
-        <v>1.042855304358263</v>
+        <v>1.008168325547102</v>
       </c>
       <c r="E11">
-        <v>1.038992870159661</v>
+        <v>0.9955282973338929</v>
       </c>
       <c r="F11">
-        <v>1.048247462768925</v>
+        <v>0.9891970879551435</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043883063598791</v>
+        <v>1.039630832202304</v>
       </c>
       <c r="J11">
-        <v>1.047191452485614</v>
+        <v>1.01701410800358</v>
       </c>
       <c r="K11">
-        <v>1.046397178827657</v>
+        <v>1.022937825907177</v>
       </c>
       <c r="L11">
-        <v>1.042548913992351</v>
+        <v>1.010535039012098</v>
       </c>
       <c r="M11">
-        <v>1.051769748957502</v>
+        <v>1.004325648017897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040352953355364</v>
+        <v>0.9852333027455926</v>
       </c>
       <c r="D12">
-        <v>1.042616556284926</v>
+        <v>1.006754712357417</v>
       </c>
       <c r="E12">
-        <v>1.038725079351284</v>
+        <v>0.9939904281639567</v>
       </c>
       <c r="F12">
-        <v>1.047886012761749</v>
+        <v>0.9871498256658533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04376745302067</v>
+        <v>1.038801306210757</v>
       </c>
       <c r="J12">
-        <v>1.046967589303075</v>
+        <v>1.015676035856796</v>
       </c>
       <c r="K12">
-        <v>1.046203950224641</v>
+        <v>1.021753636907762</v>
       </c>
       <c r="L12">
-        <v>1.042326948751028</v>
+        <v>1.009233674904057</v>
       </c>
       <c r="M12">
-        <v>1.051453994916261</v>
+        <v>1.002527426279947</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040419583183463</v>
+        <v>0.9856339993190706</v>
       </c>
       <c r="D13">
-        <v>1.042667776026999</v>
+        <v>1.007059014016831</v>
       </c>
       <c r="E13">
-        <v>1.038782527437657</v>
+        <v>0.9943214629159641</v>
       </c>
       <c r="F13">
-        <v>1.0479635504813</v>
+        <v>0.9875905837379757</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043792266951896</v>
+        <v>1.038979992556919</v>
       </c>
       <c r="J13">
-        <v>1.047015620773926</v>
+        <v>1.015964152632008</v>
       </c>
       <c r="K13">
-        <v>1.046245411006618</v>
+        <v>1.022008628654482</v>
       </c>
       <c r="L13">
-        <v>1.042374571961278</v>
+        <v>1.009513866766457</v>
       </c>
       <c r="M13">
-        <v>1.051521734787835</v>
+        <v>1.002914606131965</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040637869140737</v>
+        <v>0.98694123322345</v>
       </c>
       <c r="D14">
-        <v>1.042835572731676</v>
+        <v>1.00805195853035</v>
       </c>
       <c r="E14">
-        <v>1.03897073721033</v>
+        <v>0.995401694987338</v>
       </c>
       <c r="F14">
-        <v>1.048217587654319</v>
+        <v>0.9890285834411222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043873513983123</v>
+        <v>1.039562599721862</v>
       </c>
       <c r="J14">
-        <v>1.04717295331653</v>
+        <v>1.016903993721406</v>
       </c>
       <c r="K14">
-        <v>1.046381212163206</v>
+        <v>1.022840379446435</v>
       </c>
       <c r="L14">
-        <v>1.042530571191452</v>
+        <v>1.010427936218334</v>
       </c>
       <c r="M14">
-        <v>1.051743652931262</v>
+        <v>1.004177658514309</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040772338201522</v>
+        <v>0.9877423666482192</v>
       </c>
       <c r="D15">
-        <v>1.042938935990385</v>
+        <v>1.008660623233399</v>
       </c>
       <c r="E15">
-        <v>1.03908668180236</v>
+        <v>0.9960639097751331</v>
       </c>
       <c r="F15">
-        <v>1.048374092433185</v>
+        <v>0.9899099104641715</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04392352886399</v>
+        <v>1.039919387399879</v>
       </c>
       <c r="J15">
-        <v>1.047269855831457</v>
+        <v>1.017479884738167</v>
       </c>
       <c r="K15">
-        <v>1.046464846913091</v>
+        <v>1.023350009812379</v>
       </c>
       <c r="L15">
-        <v>1.042626655560327</v>
+        <v>1.0109880959046</v>
       </c>
       <c r="M15">
-        <v>1.051880356122685</v>
+        <v>1.004951651518206</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041554641241166</v>
+        <v>0.9923416837761737</v>
       </c>
       <c r="D16">
-        <v>1.043540223484309</v>
+        <v>1.012157022055199</v>
       </c>
       <c r="E16">
-        <v>1.039761262070842</v>
+        <v>0.9998685949643569</v>
       </c>
       <c r="F16">
-        <v>1.049284779307709</v>
+        <v>0.9949704999154866</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044213965163463</v>
+        <v>1.041963715521879</v>
       </c>
       <c r="J16">
-        <v>1.047833334312869</v>
+        <v>1.020784709129574</v>
       </c>
       <c r="K16">
-        <v>1.046951076964055</v>
+        <v>1.026274149442225</v>
       </c>
       <c r="L16">
-        <v>1.043185423108246</v>
+        <v>1.014203537652357</v>
       </c>
       <c r="M16">
-        <v>1.052675605578558</v>
+        <v>1.009394214495875</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0420450413628</v>
+        <v>0.9951727308586876</v>
       </c>
       <c r="D17">
-        <v>1.043917105534409</v>
+        <v>1.014310867396601</v>
       </c>
       <c r="E17">
-        <v>1.040184175447482</v>
+        <v>1.00221295577904</v>
       </c>
       <c r="F17">
-        <v>1.049855823665824</v>
+        <v>0.9980863092777704</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044395557882023</v>
+        <v>1.04321852121467</v>
       </c>
       <c r="J17">
-        <v>1.048186319856692</v>
+        <v>1.022817686204767</v>
       </c>
       <c r="K17">
-        <v>1.047255584802616</v>
+        <v>1.028072543270601</v>
       </c>
       <c r="L17">
-        <v>1.043535498393639</v>
+        <v>1.016182294803039</v>
       </c>
       <c r="M17">
-        <v>1.053174076830344</v>
+        <v>1.012127975830764</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042330970298462</v>
+        <v>0.996805355647013</v>
       </c>
       <c r="D18">
-        <v>1.044136830888229</v>
+        <v>1.015553524067383</v>
       </c>
       <c r="E18">
-        <v>1.040430770672201</v>
+        <v>1.003565753300945</v>
       </c>
       <c r="F18">
-        <v>1.050188831976002</v>
+        <v>0.9998834749835358</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044501265698902</v>
+        <v>1.043940851679197</v>
       </c>
       <c r="J18">
-        <v>1.048392042091707</v>
+        <v>1.023989598450185</v>
       </c>
       <c r="K18">
-        <v>1.047433022796065</v>
+        <v>1.029109077595173</v>
       </c>
       <c r="L18">
-        <v>1.043739539201533</v>
+        <v>1.017323219753769</v>
       </c>
       <c r="M18">
-        <v>1.053464695786015</v>
+        <v>1.013704220104196</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042428445614691</v>
+        <v>0.9973589410030463</v>
       </c>
       <c r="D19">
-        <v>1.044211734066494</v>
+        <v>1.015974972209668</v>
       </c>
       <c r="E19">
-        <v>1.040514839285501</v>
+        <v>1.004024594206196</v>
       </c>
       <c r="F19">
-        <v>1.050302367129555</v>
+        <v>1.000492909158669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04453727340474</v>
+        <v>1.044185555199734</v>
       </c>
       <c r="J19">
-        <v>1.048462159609453</v>
+        <v>1.024386883866224</v>
       </c>
       <c r="K19">
-        <v>1.047493494743892</v>
+        <v>1.029460442624116</v>
       </c>
       <c r="L19">
-        <v>1.0438090861172</v>
+        <v>1.017710045080792</v>
       </c>
       <c r="M19">
-        <v>1.053563767290508</v>
+        <v>1.014238641991427</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041992437808439</v>
+        <v>0.9948709350994429</v>
       </c>
       <c r="D20">
-        <v>1.04387668038974</v>
+        <v>1.014081203247245</v>
       </c>
       <c r="E20">
-        <v>1.040138809452025</v>
+        <v>1.001962953922365</v>
       </c>
       <c r="F20">
-        <v>1.049794563521773</v>
+        <v>0.9977541242374252</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044376096658848</v>
+        <v>1.043084890632781</v>
       </c>
       <c r="J20">
-        <v>1.048148465275615</v>
+        <v>1.022601015481188</v>
       </c>
       <c r="K20">
-        <v>1.04722293224601</v>
+        <v>1.027880889620896</v>
       </c>
       <c r="L20">
-        <v>1.043497954391347</v>
+        <v>1.015971374747072</v>
       </c>
       <c r="M20">
-        <v>1.053120609159386</v>
+        <v>1.01183657995505</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040573594400016</v>
+        <v>0.9865571853510696</v>
       </c>
       <c r="D21">
-        <v>1.042786165336576</v>
+        <v>1.007760214688078</v>
       </c>
       <c r="E21">
-        <v>1.038915317807897</v>
+        <v>0.9950842954908015</v>
       </c>
       <c r="F21">
-        <v>1.04814278336286</v>
+        <v>0.9886061071352866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043849597947129</v>
+        <v>1.039391491901233</v>
       </c>
       <c r="J21">
-        <v>1.04712663015457</v>
+        <v>1.016627899006558</v>
       </c>
       <c r="K21">
-        <v>1.046341229783433</v>
+        <v>1.022596043934044</v>
       </c>
       <c r="L21">
-        <v>1.042484639958172</v>
+        <v>1.010159399722287</v>
       </c>
       <c r="M21">
-        <v>1.051678309390758</v>
+        <v>1.003806604004836</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039680461572222</v>
+        <v>0.9811443984804933</v>
       </c>
       <c r="D22">
-        <v>1.042099564241416</v>
+        <v>1.003651057868957</v>
       </c>
       <c r="E22">
-        <v>1.038145291410309</v>
+        <v>0.9906145631422641</v>
       </c>
       <c r="F22">
-        <v>1.047103553689462</v>
+        <v>0.9826526311861394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043516643439253</v>
+        <v>1.036975204289688</v>
       </c>
       <c r="J22">
-        <v>1.046482624922181</v>
+        <v>1.012735085702521</v>
       </c>
       <c r="K22">
-        <v>1.045785262677194</v>
+        <v>1.019150531918335</v>
       </c>
       <c r="L22">
-        <v>1.041846138207117</v>
+        <v>1.006374268728288</v>
       </c>
       <c r="M22">
-        <v>1.050770264164667</v>
+        <v>0.9985757578668174</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040154029146483</v>
+        <v>0.9840323126108074</v>
       </c>
       <c r="D23">
-        <v>1.042463635488443</v>
+        <v>1.005842807421135</v>
       </c>
       <c r="E23">
-        <v>1.038553570849414</v>
+        <v>0.9929984596826891</v>
       </c>
       <c r="F23">
-        <v>1.047654536315798</v>
+        <v>0.9858288177642971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043693331899944</v>
+        <v>1.038265449814061</v>
       </c>
       <c r="J23">
-        <v>1.046824170988426</v>
+        <v>1.014812382594162</v>
       </c>
       <c r="K23">
-        <v>1.046080144427979</v>
+        <v>1.020989248520053</v>
       </c>
       <c r="L23">
-        <v>1.042184752851463</v>
+        <v>1.008393845547657</v>
       </c>
       <c r="M23">
-        <v>1.051251752899727</v>
+        <v>1.001366876379325</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042016207439799</v>
+        <v>0.9950073611473509</v>
       </c>
       <c r="D24">
-        <v>1.043894947092489</v>
+        <v>1.014185020631216</v>
       </c>
       <c r="E24">
-        <v>1.040159308648964</v>
+        <v>1.002075964069044</v>
       </c>
       <c r="F24">
-        <v>1.049822244566725</v>
+        <v>0.9979042866798093</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044384891003313</v>
+        <v>1.043145302052196</v>
       </c>
       <c r="J24">
-        <v>1.048165570651147</v>
+        <v>1.022698962447373</v>
       </c>
       <c r="K24">
-        <v>1.047237687075401</v>
+        <v>1.027967527981418</v>
       </c>
       <c r="L24">
-        <v>1.043514919380039</v>
+        <v>1.016066721268184</v>
       </c>
       <c r="M24">
-        <v>1.053144769302552</v>
+        <v>1.01196830561898</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044172737943938</v>
+        <v>1.007017183700607</v>
       </c>
       <c r="D25">
-        <v>1.045551850659487</v>
+        <v>1.023334994904825</v>
       </c>
       <c r="E25">
-        <v>1.042019432846232</v>
+        <v>1.012041030854334</v>
       </c>
       <c r="F25">
-        <v>1.052334936899116</v>
+        <v>1.011130808722992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045179091234905</v>
+        <v>1.048435404767627</v>
       </c>
       <c r="J25">
-        <v>1.049715600343952</v>
+        <v>1.031310677573467</v>
       </c>
       <c r="K25">
-        <v>1.048574044759459</v>
+        <v>1.035581551549038</v>
       </c>
       <c r="L25">
-        <v>1.045052543649962</v>
+        <v>1.024455257343755</v>
       </c>
       <c r="M25">
-        <v>1.055336392457733</v>
+        <v>1.023558756045822</v>
       </c>
     </row>
   </sheetData>
